--- a/data/outputs/能源化工元源数据文件_elsevier/25（3）FUEL.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/25（3）FUEL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS232"/>
+  <dimension ref="A1:BU232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -939,6 +949,12 @@
           <t>2-s2.0-84911499034</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>892</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84911475830</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>861</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1368,6 +1390,12 @@
         <is>
           <t>2-s2.0-84911492458</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>1082</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1578,6 +1606,12 @@
           <t>2-s2.0-84911499291</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>2345</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1790,6 +1824,12 @@
         <is>
           <t>2-s2.0-84911478066</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>1155</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1996,6 +2036,12 @@
           <t>2-s2.0-84911494024</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2221,6 +2267,12 @@
           <t>2-s2.0-84911465827</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1243</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2446,6 +2498,12 @@
           <t>2-s2.0-84911496150</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1685</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2671,6 +2729,12 @@
           <t>2-s2.0-84911468266</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1120</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2896,6 +2960,12 @@
           <t>2-s2.0-84911913007</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1845</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3113,6 +3183,12 @@
           <t>2-s2.0-84912571219</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>614</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3330,6 +3406,12 @@
           <t>2-s2.0-84912572490</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>891</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3547,6 +3629,12 @@
           <t>2-s2.0-84913593078</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1025</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3763,6 +3851,12 @@
         <is>
           <t>2-s2.0-84913569159</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>1112</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -3969,6 +4063,12 @@
           <t>2-s2.0-84913534694</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>449</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4170,6 +4270,12 @@
           <t>2-s2.0-84914125215</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>333</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4379,6 +4485,12 @@
           <t>2-s2.0-84913582360</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>251</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4603,6 +4715,12 @@
         <is>
           <t>2-s2.0-84908462949</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>1530</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -4813,6 +4931,12 @@
           <t>2-s2.0-84908398998</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1626</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5032,6 +5156,12 @@
           <t>2-s2.0-84911879320</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>11074</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5257,6 +5387,12 @@
           <t>2-s2.0-84911934371</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1634</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5482,6 +5618,12 @@
           <t>2-s2.0-84911922089</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>1001</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5707,6 +5849,12 @@
           <t>2-s2.0-84911904477</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5928,6 +6076,12 @@
           <t>2-s2.0-84909606552</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>641</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6153,6 +6307,12 @@
           <t>2-s2.0-84910680829</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>2103</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6362,6 +6522,12 @@
           <t>2-s2.0-84910647573</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>3287</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6587,6 +6753,12 @@
           <t>2-s2.0-84910667088</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>4710</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6812,6 +6984,12 @@
           <t>2-s2.0-84908429217</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>3391</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7041,6 +7219,12 @@
           <t>2-s2.0-84908431305</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1630</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7264,6 +7448,12 @@
           <t>2-s2.0-84908425945</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>4054</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7481,6 +7671,12 @@
           <t>2-s2.0-84908409796</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1427</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7706,6 +7902,12 @@
           <t>2-s2.0-84908403516</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1823</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7927,6 +8129,12 @@
           <t>2-s2.0-84908406608</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>1466</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8152,6 +8360,12 @@
           <t>2-s2.0-84908610805</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8377,6 +8591,12 @@
           <t>2-s2.0-84910029407</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>493</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8594,6 +8814,12 @@
           <t>2-s2.0-84912076796</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>947</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8823,6 +9049,12 @@
           <t>2-s2.0-84911867386</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1373</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9040,6 +9272,12 @@
           <t>2-s2.0-84911866724</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>2245</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9265,6 +9503,12 @@
           <t>2-s2.0-84911887774</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>1220</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9490,6 +9734,12 @@
           <t>2-s2.0-84911920479</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>930</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9711,6 +9961,12 @@
           <t>2-s2.0-84911915500</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>1511</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9928,6 +10184,12 @@
           <t>2-s2.0-84911935212</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1598</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10145,6 +10407,12 @@
           <t>2-s2.0-84910011403</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>1581</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10362,6 +10630,12 @@
           <t>2-s2.0-84910019414</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1273</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10578,6 +10852,12 @@
         <is>
           <t>2-s2.0-84910067826</t>
         </is>
+      </c>
+      <c r="BT46" t="n">
+        <v>626</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -10788,6 +11068,12 @@
           <t>2-s2.0-84910665671</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>978</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11005,6 +11291,12 @@
           <t>2-s2.0-84910620790</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1262</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11230,6 +11522,12 @@
           <t>2-s2.0-84910594642</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>813</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11455,6 +11753,12 @@
           <t>2-s2.0-84910602785</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>2066</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11676,6 +11980,12 @@
           <t>2-s2.0-84910671322</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1507</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11901,6 +12211,12 @@
           <t>2-s2.0-84908093457</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1596</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12126,6 +12442,12 @@
           <t>2-s2.0-84908109996</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>876</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12343,6 +12665,12 @@
           <t>2-s2.0-84908113547</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>1526</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12568,6 +12896,12 @@
           <t>2-s2.0-84908110466</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>2791</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12797,6 +13131,12 @@
           <t>2-s2.0-84908032689</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1837</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13026,6 +13366,12 @@
           <t>2-s2.0-84908101909</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1606</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13245,6 +13591,12 @@
           <t>2-s2.0-84908402951</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>6040</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13464,6 +13816,12 @@
           <t>2-s2.0-84908439700</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>2113</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13689,6 +14047,12 @@
           <t>2-s2.0-84908592515</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>2880</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13914,6 +14278,12 @@
           <t>2-s2.0-84908303047</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>3260</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14131,6 +14501,12 @@
           <t>2-s2.0-84908224029</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>1141</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14356,6 +14732,12 @@
           <t>2-s2.0-84908565423</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>1181</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14575,6 +14957,12 @@
           <t>2-s2.0-84908587340</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>5696</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14800,6 +15188,12 @@
           <t>2-s2.0-84908420198</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>772</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15021,6 +15415,12 @@
           <t>2-s2.0-84908518544</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>2169</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15238,6 +15638,12 @@
           <t>2-s2.0-84908547971</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>1634</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15455,6 +15861,12 @@
           <t>2-s2.0-84908345539</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>2148</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15680,6 +16092,12 @@
           <t>2-s2.0-84908430716</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>1147</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15904,6 +16322,12 @@
         <is>
           <t>2-s2.0-84908409133</t>
         </is>
+      </c>
+      <c r="BT70" t="n">
+        <v>2059</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71">
@@ -16110,6 +16534,12 @@
           <t>2-s2.0-84908406020</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>2046</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16327,6 +16757,12 @@
           <t>2-s2.0-84908439826</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>2344</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16543,6 +16979,12 @@
         <is>
           <t>2-s2.0-84907943889</t>
         </is>
+      </c>
+      <c r="BT73" t="n">
+        <v>1192</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -16753,6 +17195,12 @@
           <t>2-s2.0-84907942562</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>2406</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16977,6 +17425,12 @@
         <is>
           <t>2-s2.0-84907943551</t>
         </is>
+      </c>
+      <c r="BT75" t="n">
+        <v>1342</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -17187,6 +17641,12 @@
           <t>2-s2.0-84908032309</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>1184</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17398,6 +17858,12 @@
           <t>2-s2.0-84908042161</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>2876</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17611,6 +18077,12 @@
           <t>2-s2.0-84908044930</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>892</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17828,6 +18300,12 @@
           <t>2-s2.0-84908032308</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>1738</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18057,6 +18535,12 @@
           <t>2-s2.0-84908032688</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18274,6 +18758,12 @@
           <t>2-s2.0-84908101908</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>2570</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18490,6 +18980,12 @@
         <is>
           <t>2-s2.0-84908108207</t>
         </is>
+      </c>
+      <c r="BT82" t="n">
+        <v>823</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -18702,6 +19198,12 @@
           <t>2-s2.0-84908110238</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>7058</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18927,6 +19429,12 @@
           <t>2-s2.0-84908110000</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>1325</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19152,6 +19660,12 @@
           <t>2-s2.0-84908109997</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>1454</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19369,6 +19883,12 @@
           <t>2-s2.0-84908110231</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>1137</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19594,6 +20114,12 @@
           <t>2-s2.0-84908101910</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>1524</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19819,6 +20345,12 @@
           <t>2-s2.0-84908108208</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1454</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -20036,6 +20568,12 @@
           <t>2-s2.0-84908031889</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1406</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -20249,6 +20787,12 @@
           <t>2-s2.0-84908032311</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>977</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20466,6 +21010,12 @@
           <t>2-s2.0-84908044932</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>3210</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20691,6 +21241,12 @@
           <t>2-s2.0-84908032310</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>2093</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20907,6 +21463,12 @@
         <is>
           <t>2-s2.0-84908432614</t>
         </is>
+      </c>
+      <c r="BT93" t="n">
+        <v>1018</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -21119,6 +21681,12 @@
           <t>2-s2.0-84908052199</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>1016</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21336,6 +21904,12 @@
           <t>2-s2.0-84908577516</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>2455</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21557,6 +22131,12 @@
           <t>2-s2.0-84908296032</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>2684</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21778,6 +22358,12 @@
           <t>2-s2.0-84908576816</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>975</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -22003,6 +22589,12 @@
           <t>2-s2.0-84908582433</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>821</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -22223,6 +22815,12 @@
         <is>
           <t>2-s2.0-84908273853</t>
         </is>
+      </c>
+      <c r="BT99" t="n">
+        <v>1092</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="100">
@@ -22433,6 +23031,12 @@
           <t>2-s2.0-84908425790</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>654</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22658,6 +23262,12 @@
           <t>2-s2.0-84908582434</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>902</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22875,6 +23485,12 @@
           <t>2-s2.0-84908592514</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>881</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -23092,6 +23708,12 @@
           <t>2-s2.0-84908275287</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>1388</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -23312,6 +23934,12 @@
         <is>
           <t>2-s2.0-84908295518</t>
         </is>
+      </c>
+      <c r="BT104" t="n">
+        <v>2767</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="105">
@@ -23522,6 +24150,12 @@
           <t>2-s2.0-84908273342</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>800</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23739,6 +24373,12 @@
           <t>2-s2.0-84908282893</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>1255</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23956,6 +24596,12 @@
           <t>2-s2.0-84908290233</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>1198</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -24181,6 +24827,12 @@
           <t>2-s2.0-84908433237</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>1449</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24402,6 +25054,12 @@
           <t>2-s2.0-84908247089</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>1264</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24623,6 +25281,12 @@
           <t>2-s2.0-84908228747</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>852</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24836,6 +25500,12 @@
           <t>2-s2.0-84908259185</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -25057,6 +25727,12 @@
           <t>2-s2.0-84908229429</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>1584</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -25282,6 +25958,12 @@
           <t>2-s2.0-84908243078</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>831</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25511,6 +26193,12 @@
           <t>2-s2.0-84908248647</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>1110</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25736,6 +26424,12 @@
           <t>2-s2.0-84908239106</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>1123</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25949,6 +26643,12 @@
           <t>2-s2.0-84908260362</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>1580</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -26162,6 +26862,12 @@
           <t>2-s2.0-84908223838</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>1700</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -26387,6 +27093,12 @@
           <t>2-s2.0-84908577588</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>2197</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26604,6 +27316,12 @@
           <t>2-s2.0-84908406389</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>871</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26821,6 +27539,12 @@
           <t>2-s2.0-84908415462</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>996</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -27033,6 +27757,12 @@
         <is>
           <t>2-s2.0-84908530449</t>
         </is>
+      </c>
+      <c r="BT121" t="n">
+        <v>1118</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="122">
@@ -27243,6 +27973,12 @@
           <t>2-s2.0-84908538490</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>2302</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -27468,6 +28204,12 @@
           <t>2-s2.0-84908538489</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>935</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27693,6 +28435,12 @@
           <t>2-s2.0-84908434501</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>1180</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27918,6 +28666,12 @@
           <t>2-s2.0-84908546435</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>1312</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -28143,6 +28897,12 @@
           <t>2-s2.0-84908409978</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>838</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -28370,6 +29130,12 @@
           <t>2-s2.0-84908432303</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>1678</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28587,6 +29353,12 @@
           <t>2-s2.0-84908406816</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>2451</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28804,6 +29576,12 @@
           <t>2-s2.0-84908336689</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>1712</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -29029,6 +29807,12 @@
           <t>2-s2.0-84908323928</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>913</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -29246,6 +30030,12 @@
           <t>2-s2.0-84908348151</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>1449</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -29459,6 +30249,12 @@
           <t>2-s2.0-84908341368</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>1525</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -29680,6 +30476,12 @@
           <t>2-s2.0-84929109692</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>1650</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29899,6 +30701,12 @@
           <t>2-s2.0-84954204289</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>3448</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -30124,6 +30932,12 @@
           <t>2-s2.0-84908432862</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>6373</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -30353,6 +31167,12 @@
           <t>2-s2.0-84908431865</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>1462</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -30566,6 +31386,12 @@
           <t>2-s2.0-84908428608</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>738</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30782,6 +31608,12 @@
         <is>
           <t>2-s2.0-84908407045</t>
         </is>
+      </c>
+      <c r="BT138" t="n">
+        <v>1288</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="139">
@@ -30988,6 +31820,12 @@
           <t>2-s2.0-84913595174</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>326</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -31197,6 +32035,12 @@
           <t>2-s2.0-84913594701</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>319</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -31422,6 +32266,12 @@
           <t>2-s2.0-84906877965</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>2509</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -31639,6 +32489,12 @@
           <t>2-s2.0-84907222528</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>1799</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31864,6 +32720,12 @@
           <t>2-s2.0-84907168753</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>3544</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -32085,6 +32947,12 @@
           <t>2-s2.0-84907187285</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>1561</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -32306,6 +33174,12 @@
           <t>2-s2.0-84907185278</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>2786</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -32527,6 +33401,12 @@
           <t>2-s2.0-84907167467</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>1928</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -32756,6 +33636,12 @@
           <t>2-s2.0-84907191997</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>3007</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32973,6 +33859,12 @@
           <t>2-s2.0-84907221093</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>894</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -33198,6 +34090,12 @@
           <t>2-s2.0-84907212601</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>1417</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -33411,6 +34309,12 @@
           <t>2-s2.0-84907200820</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>2741</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -33636,6 +34540,12 @@
           <t>2-s2.0-84907164557</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>900</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -33849,6 +34759,12 @@
           <t>2-s2.0-84907484583</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>1278</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -34066,6 +34982,12 @@
           <t>2-s2.0-84907494989</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>1607</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -34295,6 +35217,12 @@
           <t>2-s2.0-84907486417</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>2551</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -34512,6 +35440,12 @@
           <t>2-s2.0-84907487357</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>1463</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -34737,6 +35671,12 @@
           <t>2-s2.0-84907483708</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>3545</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -34954,6 +35894,12 @@
           <t>2-s2.0-84907481808</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>4054</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -35170,6 +36116,12 @@
         <is>
           <t>2-s2.0-84907486418</t>
         </is>
+      </c>
+      <c r="BT158" t="n">
+        <v>2870</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="159">
@@ -35380,6 +36332,12 @@
           <t>2-s2.0-84907480708</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>1784</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -35605,6 +36563,12 @@
           <t>2-s2.0-84907484411</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>2918</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -35829,6 +36793,12 @@
         <is>
           <t>2-s2.0-84907545999</t>
         </is>
+      </c>
+      <c r="BT161" t="n">
+        <v>2460</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="162">
@@ -36039,6 +37009,12 @@
           <t>2-s2.0-84907938518</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>1595</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -36256,6 +37232,12 @@
           <t>2-s2.0-84907892987</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>1092</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -36477,6 +37459,12 @@
           <t>2-s2.0-84908102155</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>615</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -36694,6 +37682,12 @@
           <t>2-s2.0-84907222750</t>
         </is>
       </c>
+      <c r="BT165" t="n">
+        <v>3426</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -36911,6 +37905,12 @@
           <t>2-s2.0-84907192219</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>1875</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -37128,6 +38128,12 @@
           <t>2-s2.0-84907168659</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>916</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -37345,6 +38351,12 @@
           <t>2-s2.0-84907221209</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>798</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -37562,6 +38574,12 @@
           <t>2-s2.0-84907221056</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>1837</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -37779,6 +38797,12 @@
           <t>2-s2.0-84907202696</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>1870</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -38003,6 +39027,12 @@
         <is>
           <t>2-s2.0-84907168675</t>
         </is>
+      </c>
+      <c r="BT171" t="n">
+        <v>1426</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="172">
@@ -38213,6 +39243,12 @@
           <t>2-s2.0-84907164575</t>
         </is>
       </c>
+      <c r="BT172" t="n">
+        <v>1451</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -38429,6 +39465,12 @@
         <is>
           <t>2-s2.0-84907212602</t>
         </is>
+      </c>
+      <c r="BT173" t="n">
+        <v>1243</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="174">
@@ -38639,6 +39681,12 @@
           <t>2-s2.0-84907195326</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>1207</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -38856,6 +39904,12 @@
           <t>2-s2.0-84907212352</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -39069,6 +40123,12 @@
           <t>2-s2.0-84907211117</t>
         </is>
       </c>
+      <c r="BT176" t="n">
+        <v>1616</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -39290,6 +40350,12 @@
           <t>2-s2.0-84907185162</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>954</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -39507,6 +40573,12 @@
           <t>2-s2.0-84908032511</t>
         </is>
       </c>
+      <c r="BT178" t="n">
+        <v>847</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -39724,6 +40796,12 @@
           <t>2-s2.0-84907185261</t>
         </is>
       </c>
+      <c r="BT179" t="n">
+        <v>681</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -39941,6 +41019,12 @@
           <t>2-s2.0-84907221210</t>
         </is>
       </c>
+      <c r="BT180" t="n">
+        <v>1709</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -40166,6 +41250,12 @@
           <t>2-s2.0-84907168661</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>1764</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -40383,6 +41473,12 @@
           <t>2-s2.0-84922237683</t>
         </is>
       </c>
+      <c r="BT182" t="n">
+        <v>778</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -40600,6 +41696,12 @@
           <t>2-s2.0-84907204894</t>
         </is>
       </c>
+      <c r="BT183" t="n">
+        <v>1416</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -40817,6 +41919,12 @@
           <t>2-s2.0-84907190345</t>
         </is>
       </c>
+      <c r="BT184" t="n">
+        <v>1757</v>
+      </c>
+      <c r="BU184" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -41034,6 +42142,12 @@
           <t>2-s2.0-84907211116</t>
         </is>
       </c>
+      <c r="BT185" t="n">
+        <v>811</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -41251,6 +42365,12 @@
           <t>2-s2.0-84907164559</t>
         </is>
       </c>
+      <c r="BT186" t="n">
+        <v>1121</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -41468,6 +42588,12 @@
           <t>2-s2.0-84907221057</t>
         </is>
       </c>
+      <c r="BT187" t="n">
+        <v>2232</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -41693,6 +42819,12 @@
           <t>2-s2.0-84907212350</t>
         </is>
       </c>
+      <c r="BT188" t="n">
+        <v>3082</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -41918,6 +43050,12 @@
           <t>2-s2.0-84907481806</t>
         </is>
       </c>
+      <c r="BT189" t="n">
+        <v>2466</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -42139,6 +43277,12 @@
           <t>2-s2.0-84907494120</t>
         </is>
       </c>
+      <c r="BT190" t="n">
+        <v>964</v>
+      </c>
+      <c r="BU190" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -42356,6 +43500,12 @@
           <t>2-s2.0-84907487356</t>
         </is>
       </c>
+      <c r="BT191" t="n">
+        <v>1017</v>
+      </c>
+      <c r="BU191" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -42575,6 +43725,12 @@
           <t>2-s2.0-84907481807</t>
         </is>
       </c>
+      <c r="BT192" t="n">
+        <v>1202</v>
+      </c>
+      <c r="BU192" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -42796,6 +43952,12 @@
           <t>2-s2.0-84907494990</t>
         </is>
       </c>
+      <c r="BT193" t="n">
+        <v>1908</v>
+      </c>
+      <c r="BU193" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -43017,6 +44179,12 @@
           <t>2-s2.0-84907484584</t>
         </is>
       </c>
+      <c r="BT194" t="n">
+        <v>2748</v>
+      </c>
+      <c r="BU194" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -43234,6 +44402,12 @@
           <t>2-s2.0-84907487358</t>
         </is>
       </c>
+      <c r="BT195" t="n">
+        <v>1981</v>
+      </c>
+      <c r="BU195" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -43451,6 +44625,12 @@
           <t>2-s2.0-84907494993</t>
         </is>
       </c>
+      <c r="BT196" t="n">
+        <v>1028</v>
+      </c>
+      <c r="BU196" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -43676,6 +44856,12 @@
           <t>2-s2.0-84907493931</t>
         </is>
       </c>
+      <c r="BT197" t="n">
+        <v>865</v>
+      </c>
+      <c r="BU197" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -43901,6 +45087,12 @@
           <t>2-s2.0-84907486254</t>
         </is>
       </c>
+      <c r="BT198" t="n">
+        <v>3350</v>
+      </c>
+      <c r="BU198" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -44118,6 +45310,12 @@
           <t>2-s2.0-84907494839</t>
         </is>
       </c>
+      <c r="BT199" t="n">
+        <v>2080</v>
+      </c>
+      <c r="BU199" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -44335,6 +45533,12 @@
           <t>2-s2.0-84907493930</t>
         </is>
       </c>
+      <c r="BT200" t="n">
+        <v>1169</v>
+      </c>
+      <c r="BU200" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -44556,6 +45760,12 @@
           <t>2-s2.0-84907480707</t>
         </is>
       </c>
+      <c r="BT201" t="n">
+        <v>1766</v>
+      </c>
+      <c r="BU201" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -44785,6 +45995,12 @@
           <t>2-s2.0-84949115145</t>
         </is>
       </c>
+      <c r="BT202" t="n">
+        <v>6691</v>
+      </c>
+      <c r="BU202" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -45006,6 +46222,12 @@
           <t>2-s2.0-84949115018</t>
         </is>
       </c>
+      <c r="BT203" t="n">
+        <v>1312</v>
+      </c>
+      <c r="BU203" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -45219,6 +46441,12 @@
           <t>2-s2.0-84907482576</t>
         </is>
       </c>
+      <c r="BT204" t="n">
+        <v>701</v>
+      </c>
+      <c r="BU204" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -45436,6 +46664,12 @@
           <t>2-s2.0-84907494837</t>
         </is>
       </c>
+      <c r="BT205" t="n">
+        <v>951</v>
+      </c>
+      <c r="BU205" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -45655,6 +46889,12 @@
           <t>2-s2.0-84907493928</t>
         </is>
       </c>
+      <c r="BT206" t="n">
+        <v>1390</v>
+      </c>
+      <c r="BU206" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -45867,6 +47107,12 @@
         <is>
           <t>2-s2.0-84907480705</t>
         </is>
+      </c>
+      <c r="BT207" t="n">
+        <v>1562</v>
+      </c>
+      <c r="BU207" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="208">
@@ -46077,6 +47323,12 @@
           <t>2-s2.0-84949117158</t>
         </is>
       </c>
+      <c r="BT208" t="n">
+        <v>2893</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -46302,6 +47554,12 @@
           <t>2-s2.0-84907493929</t>
         </is>
       </c>
+      <c r="BT209" t="n">
+        <v>1761</v>
+      </c>
+      <c r="BU209" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -46519,6 +47777,12 @@
           <t>2-s2.0-84907480706</t>
         </is>
       </c>
+      <c r="BT210" t="n">
+        <v>1159</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -46738,6 +48002,12 @@
           <t>2-s2.0-84907494838</t>
         </is>
       </c>
+      <c r="BT211" t="n">
+        <v>1570</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -46955,6 +48225,12 @@
           <t>2-s2.0-84907889933</t>
         </is>
       </c>
+      <c r="BT212" t="n">
+        <v>1029</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -47172,6 +48448,12 @@
           <t>2-s2.0-84907899389</t>
         </is>
       </c>
+      <c r="BT213" t="n">
+        <v>603</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -47397,6 +48679,12 @@
           <t>2-s2.0-84907921190</t>
         </is>
       </c>
+      <c r="BT214" t="n">
+        <v>1746</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -47622,6 +48910,12 @@
           <t>2-s2.0-84907921191</t>
         </is>
       </c>
+      <c r="BT215" t="n">
+        <v>3107</v>
+      </c>
+      <c r="BU215" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -47838,6 +49132,12 @@
         <is>
           <t>2-s2.0-84908110010</t>
         </is>
+      </c>
+      <c r="BT216" t="n">
+        <v>2683</v>
+      </c>
+      <c r="BU216" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="217">
@@ -48048,6 +49348,12 @@
           <t>2-s2.0-84907943428</t>
         </is>
       </c>
+      <c r="BT217" t="n">
+        <v>691</v>
+      </c>
+      <c r="BU217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -48269,6 +49575,12 @@
           <t>2-s2.0-84908101932</t>
         </is>
       </c>
+      <c r="BT218" t="n">
+        <v>1414</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -48487,6 +49799,12 @@
         <is>
           <t>2-s2.0-84908099180</t>
         </is>
+      </c>
+      <c r="BT219" t="n">
+        <v>789</v>
+      </c>
+      <c r="BU219" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="220">
@@ -48697,6 +50015,12 @@
           <t>2-s2.0-84907889725</t>
         </is>
       </c>
+      <c r="BT220" t="n">
+        <v>574</v>
+      </c>
+      <c r="BU220" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -48918,6 +50242,12 @@
           <t>2-s2.0-84907898057</t>
         </is>
       </c>
+      <c r="BT221" t="n">
+        <v>1016</v>
+      </c>
+      <c r="BU221" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -49143,6 +50473,12 @@
           <t>2-s2.0-84907906372</t>
         </is>
       </c>
+      <c r="BT222" t="n">
+        <v>1982</v>
+      </c>
+      <c r="BU222" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -49364,6 +50700,12 @@
           <t>2-s2.0-84907899172</t>
         </is>
       </c>
+      <c r="BT223" t="n">
+        <v>2120</v>
+      </c>
+      <c r="BU223" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -49589,6 +50931,12 @@
           <t>2-s2.0-84907901065</t>
         </is>
       </c>
+      <c r="BT224" t="n">
+        <v>2120</v>
+      </c>
+      <c r="BU224" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -49810,6 +51158,12 @@
           <t>2-s2.0-85027943205</t>
         </is>
       </c>
+      <c r="BT225" t="n">
+        <v>2485</v>
+      </c>
+      <c r="BU225" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -50031,6 +51385,12 @@
           <t>2-s2.0-85027940205</t>
         </is>
       </c>
+      <c r="BT226" t="n">
+        <v>1534</v>
+      </c>
+      <c r="BU226" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -50252,6 +51612,12 @@
           <t>2-s2.0-84921956517</t>
         </is>
       </c>
+      <c r="BT227" t="n">
+        <v>1353</v>
+      </c>
+      <c r="BU227" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -50473,6 +51839,12 @@
           <t>2-s2.0-85027949922</t>
         </is>
       </c>
+      <c r="BT228" t="n">
+        <v>1778</v>
+      </c>
+      <c r="BU228" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -50693,6 +52065,12 @@
         <is>
           <t>2-s2.0-85027955642</t>
         </is>
+      </c>
+      <c r="BT229" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BU229" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="230">
@@ -50895,6 +52273,12 @@
           <t>2-s2.0-85027940291</t>
         </is>
       </c>
+      <c r="BT230" t="n">
+        <v>867</v>
+      </c>
+      <c r="BU230" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -51096,6 +52480,12 @@
           <t>2-s2.0-84921962691</t>
         </is>
       </c>
+      <c r="BT231" t="n">
+        <v>829</v>
+      </c>
+      <c r="BU231" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -51299,6 +52689,12 @@
           <t>2-s2.0-84921964174</t>
         </is>
       </c>
+      <c r="BT232" t="n">
+        <v>822</v>
+      </c>
+      <c r="BU232" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
